--- a/Case 2/Input/Factory_info.xlsx
+++ b/Case 2/Input/Factory_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nam Sohyun\PycharmProjects\UI_Simulation\Case 2\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nam Sohyun\PycharmProjects\EPL\Case 2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0434B0D7-FC81-42E8-A02C-0B345663CD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ECF8D8-2FC7-436E-9E27-27150EF387DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-1140" windowWidth="23256" windowHeight="12456" xr2:uid="{EB6449CF-4CBE-4E31-B41A-062FFC7DA735}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB6449CF-4CBE-4E31-B41A-062FFC7DA735}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,18 +764,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A1EB43-E7E3-4F30-B34A-1F7AE39B6D17}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -798,7 +798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -822,7 +822,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -846,7 +846,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -870,7 +870,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -894,7 +894,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -918,7 +918,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -942,7 +942,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -966,7 +966,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,7 +990,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -1708,16 +1708,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="1">
-        <v>35154.149417427543</v>
+        <v>14599.0335</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>35154.149417427543</v>
+        <v>14599.0335</v>
       </c>
       <c r="D40" t="s">
         <v>27</v>
@@ -1732,7 +1732,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>76</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>102</v>
       </c>
